--- a/Code/Results/Cases/Case_2_125/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_125/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9943959443126288</v>
+        <v>1.021017892867217</v>
       </c>
       <c r="D2">
-        <v>1.016439942780484</v>
+        <v>1.030200767296413</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.016004396543875</v>
+        <v>1.036876815792654</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044859483896626</v>
+        <v>1.030225492146027</v>
       </c>
       <c r="J2">
-        <v>1.016745573539173</v>
+        <v>1.026211730096811</v>
       </c>
       <c r="K2">
-        <v>1.027674897455187</v>
+        <v>1.033012466510578</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.027245178112348</v>
+        <v>1.039669303220529</v>
       </c>
       <c r="N2">
-        <v>1.009676260094486</v>
+        <v>1.012829858124939</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9983198702063822</v>
+        <v>1.021837642343808</v>
       </c>
       <c r="D3">
-        <v>1.019391405983498</v>
+        <v>1.030826974434112</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.01965623774433</v>
+        <v>1.037688220676287</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04586014315175</v>
+        <v>1.030346042488668</v>
       </c>
       <c r="J3">
-        <v>1.018856442280639</v>
+        <v>1.026669593382548</v>
       </c>
       <c r="K3">
-        <v>1.029782039556285</v>
+        <v>1.033447468386647</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.030043642192707</v>
+        <v>1.040290395545401</v>
       </c>
       <c r="N3">
-        <v>1.010371713138757</v>
+        <v>1.012980575344422</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000808458426978</v>
+        <v>1.022368297281582</v>
       </c>
       <c r="D4">
-        <v>1.021263044503704</v>
+        <v>1.031231953556889</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.021975659155077</v>
+        <v>1.038213581891308</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046479384817209</v>
+        <v>1.030422151984871</v>
       </c>
       <c r="J4">
-        <v>1.020191506339921</v>
+        <v>1.026965440425052</v>
       </c>
       <c r="K4">
-        <v>1.031111441719177</v>
+        <v>1.033728036259707</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.031815899298131</v>
+        <v>1.040691961526404</v>
       </c>
       <c r="N4">
-        <v>1.010811573842599</v>
+        <v>1.013077953889465</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001842954980139</v>
+        <v>1.02259143623453</v>
       </c>
       <c r="D5">
-        <v>1.022040976615698</v>
+        <v>1.031402152508963</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.02294061011985</v>
+        <v>1.038434520280707</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046733053391892</v>
+        <v>1.030453693884817</v>
       </c>
       <c r="J5">
-        <v>1.020745577265579</v>
+        <v>1.027089712437944</v>
       </c>
       <c r="K5">
-        <v>1.031662350701897</v>
+        <v>1.033845768282142</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.03255196444579</v>
+        <v>1.040860700989619</v>
       </c>
       <c r="N5">
-        <v>1.010994123221307</v>
+        <v>1.013118856549014</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00201597558502</v>
+        <v>1.022628905227415</v>
       </c>
       <c r="D6">
-        <v>1.022171079151436</v>
+        <v>1.031430726424073</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.0231020437304</v>
+        <v>1.038471621238505</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046775257772107</v>
+        <v>1.030458963226799</v>
       </c>
       <c r="J6">
-        <v>1.020838191827217</v>
+        <v>1.027110572232544</v>
       </c>
       <c r="K6">
-        <v>1.031754388420131</v>
+        <v>1.033865523138476</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.032675032345757</v>
+        <v>1.040889028412546</v>
       </c>
       <c r="N6">
-        <v>1.011024636905049</v>
+        <v>1.013125722204108</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00082232693483</v>
+        <v>1.022371278674363</v>
       </c>
       <c r="D7">
-        <v>1.021273473962387</v>
+        <v>1.031234227979271</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.021988592313245</v>
+        <v>1.038216533782668</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046482800387575</v>
+        <v>1.030422575236491</v>
       </c>
       <c r="J7">
-        <v>1.020198937874146</v>
+        <v>1.026967101356492</v>
       </c>
       <c r="K7">
-        <v>1.031118834079261</v>
+        <v>1.033729610262004</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.031825769665135</v>
+        <v>1.040694216543473</v>
       </c>
       <c r="N7">
-        <v>1.01081402230301</v>
+        <v>1.013078500571977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9957327304028771</v>
+        <v>1.021294884081322</v>
       </c>
       <c r="D8">
-        <v>1.017445445656819</v>
+        <v>1.0304124410901</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.017247755781867</v>
+        <v>1.037150964764495</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045203574789642</v>
+        <v>1.030266624425034</v>
       </c>
       <c r="J8">
-        <v>1.017465445405381</v>
+        <v>1.026366553573644</v>
       </c>
       <c r="K8">
-        <v>1.028394180800985</v>
+        <v>1.033159664438271</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.028199055644439</v>
+        <v>1.039879269979227</v>
       </c>
       <c r="N8">
-        <v>1.009913429360491</v>
+        <v>1.012880823599049</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9863601360487576</v>
+        <v>1.019399910744079</v>
       </c>
       <c r="D9">
-        <v>1.010396879680445</v>
+        <v>1.028962755493903</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.008546185674145</v>
+        <v>1.035275895585319</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042728134268411</v>
+        <v>1.029977350269543</v>
       </c>
       <c r="J9">
-        <v>1.012403921200415</v>
+        <v>1.025305142060444</v>
       </c>
       <c r="K9">
-        <v>1.023323497202783</v>
+        <v>1.032148461865461</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.0215021121674</v>
+        <v>1.038440837295449</v>
       </c>
       <c r="N9">
-        <v>1.008245916892735</v>
+        <v>1.012531395495599</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9798139313113389</v>
+        <v>1.018137879137439</v>
       </c>
       <c r="D10">
-        <v>1.005478004841526</v>
+        <v>1.027995339849007</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.002490815771589</v>
+        <v>1.034027714547674</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040921756113438</v>
+        <v>1.02977482852293</v>
       </c>
       <c r="J10">
-        <v>1.008851982446542</v>
+        <v>1.024595477843943</v>
       </c>
       <c r="K10">
-        <v>1.019749051638279</v>
+        <v>1.031469784055265</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.016815242932578</v>
+        <v>1.037480374697414</v>
       </c>
       <c r="N10">
-        <v>1.007075845071635</v>
+        <v>1.012297731829471</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9769024385865539</v>
+        <v>1.01759172937188</v>
       </c>
       <c r="D11">
-        <v>1.003292093704643</v>
+        <v>1.027576234254459</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9998035196410295</v>
+        <v>1.033487705283266</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040100787385831</v>
+        <v>1.029684851812605</v>
       </c>
       <c r="J11">
-        <v>1.007268704053033</v>
+        <v>1.024287713161909</v>
       </c>
       <c r="K11">
-        <v>1.018152191865559</v>
+        <v>1.031174849628369</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.014729142245218</v>
+        <v>1.037064147388405</v>
       </c>
       <c r="N11">
-        <v>1.006554322212959</v>
+        <v>1.012196389382907</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9758088469093351</v>
+        <v>1.017388914370743</v>
       </c>
       <c r="D12">
-        <v>1.002471384427805</v>
+        <v>1.027420530362999</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9987950810869851</v>
+        <v>1.033287193074027</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039789852426664</v>
+        <v>1.029651088290091</v>
       </c>
       <c r="J12">
-        <v>1.006673517556443</v>
+        <v>1.024173325464436</v>
       </c>
       <c r="K12">
-        <v>1.017551389284888</v>
+        <v>1.031065139654946</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.013945401906249</v>
+        <v>1.036909492534415</v>
       </c>
       <c r="N12">
-        <v>1.006358277728468</v>
+        <v>1.012158721984943</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9760439847294382</v>
+        <v>1.017432416619793</v>
       </c>
       <c r="D13">
-        <v>1.002647831828526</v>
+        <v>1.027453930677309</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9990118662549461</v>
+        <v>1.033330200366794</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039856822837203</v>
+        <v>1.02965834614967</v>
       </c>
       <c r="J13">
-        <v>1.006801512542357</v>
+        <v>1.02419786517044</v>
       </c>
       <c r="K13">
-        <v>1.017680614711166</v>
+        <v>1.031088679952511</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.014113924229694</v>
+        <v>1.036942668738583</v>
       </c>
       <c r="N13">
-        <v>1.006400436826305</v>
+        <v>1.01216680286264</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9768122929280078</v>
+        <v>1.0175749636053</v>
       </c>
       <c r="D14">
-        <v>1.003224434514719</v>
+        <v>1.027563364311443</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9997203737328202</v>
+        <v>1.033471129416189</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040075208586069</v>
+        <v>1.029682067884216</v>
       </c>
       <c r="J14">
-        <v>1.00721965202794</v>
+        <v>1.024278259263935</v>
       </c>
       <c r="K14">
-        <v>1.018102687238665</v>
+        <v>1.031165784186655</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.014664541109581</v>
+        <v>1.03705136456999</v>
       </c>
       <c r="N14">
-        <v>1.00653816515708</v>
+        <v>1.01219327627736</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9772840473563483</v>
+        <v>1.017662798091217</v>
       </c>
       <c r="D15">
-        <v>1.003578526234521</v>
+        <v>1.027630786143523</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.000155535502286</v>
+        <v>1.03355796995798</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040208964413673</v>
+        <v>1.029696638314207</v>
       </c>
       <c r="J15">
-        <v>1.007476333696906</v>
+        <v>1.024327783453973</v>
       </c>
       <c r="K15">
-        <v>1.018361716629042</v>
+        <v>1.031213269730197</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.015002607950905</v>
+        <v>1.037118329150236</v>
       </c>
       <c r="N15">
-        <v>1.006622712806873</v>
+        <v>1.012209584214272</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9800054882432573</v>
+        <v>1.018174132134124</v>
       </c>
       <c r="D16">
-        <v>1.005621867165116</v>
+        <v>1.028023150279762</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.002667749629377</v>
+        <v>1.034063563072016</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040975410136024</v>
+        <v>1.029780751947789</v>
       </c>
       <c r="J16">
-        <v>1.008956081739445</v>
+        <v>1.024615893261515</v>
       </c>
       <c r="K16">
-        <v>1.019853971878312</v>
+        <v>1.031489335619065</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.016952466855465</v>
+        <v>1.037507991299438</v>
       </c>
       <c r="N16">
-        <v>1.007110135639637</v>
+        <v>1.01230445416307</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9816915826433124</v>
+        <v>1.018494964752313</v>
       </c>
       <c r="D17">
-        <v>1.006888365868051</v>
+        <v>1.02826921551035</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.004225808813854</v>
+        <v>1.034380833181456</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041445683541841</v>
+        <v>1.029832903497001</v>
       </c>
       <c r="J17">
-        <v>1.009871973537388</v>
+        <v>1.024796490526627</v>
       </c>
       <c r="K17">
-        <v>1.020776685520649</v>
+        <v>1.031662221017557</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.018160147779161</v>
+        <v>1.037752326055044</v>
       </c>
       <c r="N17">
-        <v>1.007411837044169</v>
+        <v>1.012363919820521</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9826676697527468</v>
+        <v>1.018682131594651</v>
       </c>
       <c r="D18">
-        <v>1.007621714136583</v>
+        <v>1.028412720979479</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.005128331465161</v>
+        <v>1.034565935852155</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041716254393992</v>
+        <v>1.029863102232916</v>
       </c>
       <c r="J18">
-        <v>1.010401850492498</v>
+        <v>1.024901783905106</v>
       </c>
       <c r="K18">
-        <v>1.021310171092549</v>
+        <v>1.031762959538628</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.018859126510925</v>
+        <v>1.037894809402467</v>
       </c>
       <c r="N18">
-        <v>1.007586385824158</v>
+        <v>1.012398589229004</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9829992547404229</v>
+        <v>1.018745955795594</v>
       </c>
       <c r="D19">
-        <v>1.007870864865033</v>
+        <v>1.028461649149715</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.00543501859122</v>
+        <v>1.034629058547834</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041807883859103</v>
+        <v>1.029873361813721</v>
       </c>
       <c r="J19">
-        <v>1.010581795861393</v>
+        <v>1.024937678394552</v>
       </c>
       <c r="K19">
-        <v>1.021491283928691</v>
+        <v>1.031797291323564</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.01909654779525</v>
+        <v>1.037943386896272</v>
       </c>
       <c r="N19">
-        <v>1.007645662871068</v>
+        <v>1.01241040789109</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.981511448384233</v>
+        <v>1.018460539272124</v>
       </c>
       <c r="D20">
-        <v>1.006753041382798</v>
+        <v>1.028242817117413</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.004059295186042</v>
+        <v>1.034346788496328</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041395614778846</v>
+        <v>1.0298273309178</v>
       </c>
       <c r="J20">
-        <v>1.009774158679038</v>
+        <v>1.024777118893228</v>
       </c>
       <c r="K20">
-        <v>1.020678177026101</v>
+        <v>1.031643682653247</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.018031140362432</v>
+        <v>1.037726114647402</v>
       </c>
       <c r="N20">
-        <v>1.007379615753634</v>
+        <v>1.012357541360188</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9765863850549119</v>
+        <v>1.017532985696719</v>
       </c>
       <c r="D21">
-        <v>1.003054884260377</v>
+        <v>1.027531139630708</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9995120228335389</v>
+        <v>1.033429627340445</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04001106615103</v>
+        <v>1.02967509186292</v>
       </c>
       <c r="J21">
-        <v>1.007096718376425</v>
+        <v>1.024254587134935</v>
       </c>
       <c r="K21">
-        <v>1.017978611134832</v>
+        <v>1.031143083267018</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.014502645993207</v>
+        <v>1.037019357709753</v>
       </c>
       <c r="N21">
-        <v>1.006497672628196</v>
+        <v>1.012185481184031</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9734192892454386</v>
+        <v>1.016950082163425</v>
       </c>
       <c r="D22">
-        <v>1.000678807829582</v>
+        <v>1.027083510493651</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9965933848323003</v>
+        <v>1.03285338506269</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039105797597206</v>
+        <v>1.029577393899408</v>
       </c>
       <c r="J22">
-        <v>1.005372150782843</v>
+        <v>1.023925645179295</v>
       </c>
       <c r="K22">
-        <v>1.016236829387609</v>
+        <v>1.030827421995453</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.012232630859892</v>
+        <v>1.036574706013775</v>
       </c>
       <c r="N22">
-        <v>1.005929642368951</v>
+        <v>1.012077159729864</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9751051118578974</v>
+        <v>1.017259062716822</v>
       </c>
       <c r="D23">
-        <v>1.001943358091405</v>
+        <v>1.027320822589485</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.998146415580502</v>
+        <v>1.033158822164106</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039589048175468</v>
+        <v>1.029629372748085</v>
       </c>
       <c r="J23">
-        <v>1.006290377868135</v>
+        <v>1.024100061560833</v>
       </c>
       <c r="K23">
-        <v>1.017164493338871</v>
+        <v>1.030994846224218</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.013441016785049</v>
+        <v>1.036810450798803</v>
       </c>
       <c r="N23">
-        <v>1.006232079884165</v>
+        <v>1.012134596150458</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9815928660769336</v>
+        <v>1.018476094570386</v>
       </c>
       <c r="D24">
-        <v>1.006814205290354</v>
+        <v>1.028254745477556</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.004134554861345</v>
+        <v>1.034362171687183</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041418250217844</v>
+        <v>1.029829849607499</v>
       </c>
       <c r="J24">
-        <v>1.00981837041678</v>
+        <v>1.024785872242631</v>
       </c>
       <c r="K24">
-        <v>1.020722703333361</v>
+        <v>1.031652059659294</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.018089450049952</v>
+        <v>1.03773795855635</v>
       </c>
       <c r="N24">
-        <v>1.007394179575805</v>
+        <v>1.012360423561039</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.988833655728898</v>
+        <v>1.019889587257796</v>
       </c>
       <c r="D25">
-        <v>1.012256616286764</v>
+        <v>1.029337711077012</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.010838993027528</v>
+        <v>1.035760325734746</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043395041755866</v>
+        <v>1.030053843442111</v>
       </c>
       <c r="J25">
-        <v>1.013742745435583</v>
+        <v>1.025579910291318</v>
       </c>
       <c r="K25">
-        <v>1.024667597608672</v>
+        <v>1.032410688961113</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.023271345889163</v>
+        <v>1.038812979708511</v>
       </c>
       <c r="N25">
-        <v>1.008686975508243</v>
+        <v>1.012621858305038</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_125/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_125/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021017892867217</v>
+        <v>0.994395944312629</v>
       </c>
       <c r="D2">
-        <v>1.030200767296413</v>
+        <v>1.016439942780484</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.036876815792654</v>
+        <v>1.016004396543875</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030225492146027</v>
+        <v>1.044859483896626</v>
       </c>
       <c r="J2">
-        <v>1.026211730096811</v>
+        <v>1.016745573539173</v>
       </c>
       <c r="K2">
-        <v>1.033012466510578</v>
+        <v>1.027674897455187</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.039669303220529</v>
+        <v>1.027245178112348</v>
       </c>
       <c r="N2">
-        <v>1.012829858124939</v>
+        <v>1.009676260094486</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021837642343808</v>
+        <v>0.9983198702063828</v>
       </c>
       <c r="D3">
-        <v>1.030826974434112</v>
+        <v>1.019391405983499</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.037688220676287</v>
+        <v>1.019656237744331</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030346042488668</v>
+        <v>1.04586014315175</v>
       </c>
       <c r="J3">
-        <v>1.026669593382548</v>
+        <v>1.01885644228064</v>
       </c>
       <c r="K3">
-        <v>1.033447468386647</v>
+        <v>1.029782039556286</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.040290395545401</v>
+        <v>1.030043642192707</v>
       </c>
       <c r="N3">
-        <v>1.012980575344422</v>
+        <v>1.010371713138757</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022368297281582</v>
+        <v>1.000808458426978</v>
       </c>
       <c r="D4">
-        <v>1.031231953556889</v>
+        <v>1.021263044503704</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.038213581891308</v>
+        <v>1.021975659155077</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030422151984871</v>
+        <v>1.046479384817209</v>
       </c>
       <c r="J4">
-        <v>1.026965440425052</v>
+        <v>1.020191506339921</v>
       </c>
       <c r="K4">
-        <v>1.033728036259707</v>
+        <v>1.031111441719177</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.040691961526404</v>
+        <v>1.03181589929813</v>
       </c>
       <c r="N4">
-        <v>1.013077953889465</v>
+        <v>1.010811573842599</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02259143623453</v>
+        <v>1.001842954980139</v>
       </c>
       <c r="D5">
-        <v>1.031402152508963</v>
+        <v>1.022040976615698</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.038434520280707</v>
+        <v>1.02294061011985</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030453693884817</v>
+        <v>1.046733053391892</v>
       </c>
       <c r="J5">
-        <v>1.027089712437944</v>
+        <v>1.020745577265579</v>
       </c>
       <c r="K5">
-        <v>1.033845768282142</v>
+        <v>1.031662350701897</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.040860700989619</v>
+        <v>1.03255196444579</v>
       </c>
       <c r="N5">
-        <v>1.013118856549014</v>
+        <v>1.010994123221307</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022628905227415</v>
+        <v>1.00201597558502</v>
       </c>
       <c r="D6">
-        <v>1.031430726424073</v>
+        <v>1.022171079151436</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.038471621238505</v>
+        <v>1.0231020437304</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030458963226799</v>
+        <v>1.046775257772107</v>
       </c>
       <c r="J6">
-        <v>1.027110572232544</v>
+        <v>1.020838191827217</v>
       </c>
       <c r="K6">
-        <v>1.033865523138476</v>
+        <v>1.031754388420131</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.040889028412546</v>
+        <v>1.032675032345757</v>
       </c>
       <c r="N6">
-        <v>1.013125722204108</v>
+        <v>1.011024636905049</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022371278674363</v>
+        <v>1.000822326934831</v>
       </c>
       <c r="D7">
-        <v>1.031234227979271</v>
+        <v>1.021273473962387</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.038216533782668</v>
+        <v>1.021988592313246</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030422575236491</v>
+        <v>1.046482800387575</v>
       </c>
       <c r="J7">
-        <v>1.026967101356492</v>
+        <v>1.020198937874146</v>
       </c>
       <c r="K7">
-        <v>1.033729610262004</v>
+        <v>1.031118834079261</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.040694216543473</v>
+        <v>1.031825769665135</v>
       </c>
       <c r="N7">
-        <v>1.013078500571977</v>
+        <v>1.010814022303011</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021294884081322</v>
+        <v>0.9957327304028777</v>
       </c>
       <c r="D8">
-        <v>1.0304124410901</v>
+        <v>1.01744544565682</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.037150964764495</v>
+        <v>1.017247755781868</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030266624425034</v>
+        <v>1.045203574789642</v>
       </c>
       <c r="J8">
-        <v>1.026366553573644</v>
+        <v>1.017465445405381</v>
       </c>
       <c r="K8">
-        <v>1.033159664438271</v>
+        <v>1.028394180800986</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.039879269979227</v>
+        <v>1.02819905564444</v>
       </c>
       <c r="N8">
-        <v>1.012880823599049</v>
+        <v>1.009913429360491</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019399910744079</v>
+        <v>0.9863601360487582</v>
       </c>
       <c r="D9">
-        <v>1.028962755493903</v>
+        <v>1.010396879680445</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.035275895585319</v>
+        <v>1.008546185674145</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029977350269543</v>
+        <v>1.042728134268411</v>
       </c>
       <c r="J9">
-        <v>1.025305142060444</v>
+        <v>1.012403921200416</v>
       </c>
       <c r="K9">
-        <v>1.032148461865461</v>
+        <v>1.023323497202784</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.038440837295449</v>
+        <v>1.021502112167401</v>
       </c>
       <c r="N9">
-        <v>1.012531395495599</v>
+        <v>1.008245916892735</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018137879137439</v>
+        <v>0.979813931311339</v>
       </c>
       <c r="D10">
-        <v>1.027995339849007</v>
+        <v>1.005478004841526</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.034027714547674</v>
+        <v>1.002490815771589</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02977482852293</v>
+        <v>1.040921756113438</v>
       </c>
       <c r="J10">
-        <v>1.024595477843943</v>
+        <v>1.008851982446542</v>
       </c>
       <c r="K10">
-        <v>1.031469784055265</v>
+        <v>1.01974905163828</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.037480374697414</v>
+        <v>1.016815242932578</v>
       </c>
       <c r="N10">
-        <v>1.012297731829471</v>
+        <v>1.007075845071635</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01759172937188</v>
+        <v>0.9769024385865549</v>
       </c>
       <c r="D11">
-        <v>1.027576234254459</v>
+        <v>1.003292093704644</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.033487705283266</v>
+        <v>0.9998035196410303</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029684851812605</v>
+        <v>1.040100787385832</v>
       </c>
       <c r="J11">
-        <v>1.024287713161909</v>
+        <v>1.007268704053033</v>
       </c>
       <c r="K11">
-        <v>1.031174849628369</v>
+        <v>1.01815219186556</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.037064147388405</v>
+        <v>1.014729142245219</v>
       </c>
       <c r="N11">
-        <v>1.012196389382907</v>
+        <v>1.006554322212959</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017388914370743</v>
+        <v>0.9758088469093338</v>
       </c>
       <c r="D12">
-        <v>1.027420530362999</v>
+        <v>1.002471384427804</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.033287193074027</v>
+        <v>0.998795081086984</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029651088290091</v>
+        <v>1.039789852426663</v>
       </c>
       <c r="J12">
-        <v>1.024173325464436</v>
+        <v>1.006673517556442</v>
       </c>
       <c r="K12">
-        <v>1.031065139654946</v>
+        <v>1.017551389284887</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.036909492534415</v>
+        <v>1.013945401906247</v>
       </c>
       <c r="N12">
-        <v>1.012158721984943</v>
+        <v>1.006358277728468</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017432416619793</v>
+        <v>0.9760439847294388</v>
       </c>
       <c r="D13">
-        <v>1.027453930677309</v>
+        <v>1.002647831828527</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.033330200366794</v>
+        <v>0.9990118662549465</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02965834614967</v>
+        <v>1.039856822837204</v>
       </c>
       <c r="J13">
-        <v>1.02419786517044</v>
+        <v>1.006801512542357</v>
       </c>
       <c r="K13">
-        <v>1.031088679952511</v>
+        <v>1.017680614711167</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.036942668738583</v>
+        <v>1.014113924229694</v>
       </c>
       <c r="N13">
-        <v>1.01216680286264</v>
+        <v>1.006400436826305</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.0175749636053</v>
+        <v>0.9768122929280074</v>
       </c>
       <c r="D14">
-        <v>1.027563364311443</v>
+        <v>1.003224434514718</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.033471129416189</v>
+        <v>0.9997203737328197</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029682067884216</v>
+        <v>1.040075208586069</v>
       </c>
       <c r="J14">
-        <v>1.024278259263935</v>
+        <v>1.00721965202794</v>
       </c>
       <c r="K14">
-        <v>1.031165784186655</v>
+        <v>1.018102687238664</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.03705136456999</v>
+        <v>1.014664541109581</v>
       </c>
       <c r="N14">
-        <v>1.01219327627736</v>
+        <v>1.00653816515708</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017662798091217</v>
+        <v>0.9772840473563484</v>
       </c>
       <c r="D15">
-        <v>1.027630786143523</v>
+        <v>1.003578526234521</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.03355796995798</v>
+        <v>1.000155535502286</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029696638314207</v>
+        <v>1.040208964413673</v>
       </c>
       <c r="J15">
-        <v>1.024327783453973</v>
+        <v>1.007476333696906</v>
       </c>
       <c r="K15">
-        <v>1.031213269730197</v>
+        <v>1.018361716629042</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.037118329150236</v>
+        <v>1.015002607950905</v>
       </c>
       <c r="N15">
-        <v>1.012209584214272</v>
+        <v>1.006622712806873</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018174132134124</v>
+        <v>0.9800054882432572</v>
       </c>
       <c r="D16">
-        <v>1.028023150279762</v>
+        <v>1.005621867165116</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.034063563072016</v>
+        <v>1.002667749629377</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029780751947789</v>
+        <v>1.040975410136024</v>
       </c>
       <c r="J16">
-        <v>1.024615893261515</v>
+        <v>1.008956081739445</v>
       </c>
       <c r="K16">
-        <v>1.031489335619065</v>
+        <v>1.019853971878312</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.037507991299438</v>
+        <v>1.016952466855465</v>
       </c>
       <c r="N16">
-        <v>1.01230445416307</v>
+        <v>1.007110135639636</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018494964752313</v>
+        <v>0.9816915826433124</v>
       </c>
       <c r="D17">
-        <v>1.02826921551035</v>
+        <v>1.006888365868051</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.034380833181456</v>
+        <v>1.004225808813854</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029832903497001</v>
+        <v>1.041445683541841</v>
       </c>
       <c r="J17">
-        <v>1.024796490526627</v>
+        <v>1.009871973537388</v>
       </c>
       <c r="K17">
-        <v>1.031662221017557</v>
+        <v>1.020776685520648</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.037752326055044</v>
+        <v>1.018160147779161</v>
       </c>
       <c r="N17">
-        <v>1.012363919820521</v>
+        <v>1.007411837044169</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018682131594651</v>
+        <v>0.9826676697527463</v>
       </c>
       <c r="D18">
-        <v>1.028412720979479</v>
+        <v>1.007621714136582</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.034565935852155</v>
+        <v>1.00512833146516</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029863102232916</v>
+        <v>1.041716254393992</v>
       </c>
       <c r="J18">
-        <v>1.024901783905106</v>
+        <v>1.010401850492498</v>
       </c>
       <c r="K18">
-        <v>1.031762959538628</v>
+        <v>1.021310171092549</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.037894809402467</v>
+        <v>1.018859126510925</v>
       </c>
       <c r="N18">
-        <v>1.012398589229004</v>
+        <v>1.007586385824157</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018745955795594</v>
+        <v>0.9829992547404242</v>
       </c>
       <c r="D19">
-        <v>1.028461649149715</v>
+        <v>1.007870864865033</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.034629058547834</v>
+        <v>1.005435018591221</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029873361813721</v>
+        <v>1.041807883859104</v>
       </c>
       <c r="J19">
-        <v>1.024937678394552</v>
+        <v>1.010581795861394</v>
       </c>
       <c r="K19">
-        <v>1.031797291323564</v>
+        <v>1.021491283928692</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.037943386896272</v>
+        <v>1.019096547795252</v>
       </c>
       <c r="N19">
-        <v>1.01241040789109</v>
+        <v>1.007645662871069</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018460539272124</v>
+        <v>0.9815114483842335</v>
       </c>
       <c r="D20">
-        <v>1.028242817117413</v>
+        <v>1.006753041382799</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.034346788496328</v>
+        <v>1.004059295186043</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0298273309178</v>
+        <v>1.041395614778846</v>
       </c>
       <c r="J20">
-        <v>1.024777118893228</v>
+        <v>1.009774158679039</v>
       </c>
       <c r="K20">
-        <v>1.031643682653247</v>
+        <v>1.020678177026102</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.037726114647402</v>
+        <v>1.018031140362433</v>
       </c>
       <c r="N20">
-        <v>1.012357541360188</v>
+        <v>1.007379615753634</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017532985696719</v>
+        <v>0.9765863850549115</v>
       </c>
       <c r="D21">
-        <v>1.027531139630708</v>
+        <v>1.003054884260377</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.033429627340445</v>
+        <v>0.9995120228335391</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02967509186292</v>
+        <v>1.04001106615103</v>
       </c>
       <c r="J21">
-        <v>1.024254587134935</v>
+        <v>1.007096718376425</v>
       </c>
       <c r="K21">
-        <v>1.031143083267018</v>
+        <v>1.017978611134832</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.037019357709753</v>
+        <v>1.014502645993207</v>
       </c>
       <c r="N21">
-        <v>1.012185481184031</v>
+        <v>1.006497672628196</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016950082163425</v>
+        <v>0.9734192892454383</v>
       </c>
       <c r="D22">
-        <v>1.027083510493651</v>
+        <v>1.000678807829582</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.03285338506269</v>
+        <v>0.9965933848323003</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029577393899408</v>
+        <v>1.039105797597207</v>
       </c>
       <c r="J22">
-        <v>1.023925645179295</v>
+        <v>1.005372150782842</v>
       </c>
       <c r="K22">
-        <v>1.030827421995453</v>
+        <v>1.016236829387609</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.036574706013775</v>
+        <v>1.012232630859892</v>
       </c>
       <c r="N22">
-        <v>1.012077159729864</v>
+        <v>1.005929642368951</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017259062716822</v>
+        <v>0.9751051118578972</v>
       </c>
       <c r="D23">
-        <v>1.027320822589485</v>
+        <v>1.001943358091405</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.033158822164106</v>
+        <v>0.9981464155805017</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029629372748085</v>
+        <v>1.039589048175468</v>
       </c>
       <c r="J23">
-        <v>1.024100061560833</v>
+        <v>1.006290377868134</v>
       </c>
       <c r="K23">
-        <v>1.030994846224218</v>
+        <v>1.017164493338871</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.036810450798803</v>
+        <v>1.013441016785049</v>
       </c>
       <c r="N23">
-        <v>1.012134596150458</v>
+        <v>1.006232079884164</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018476094570386</v>
+        <v>0.9815928660769345</v>
       </c>
       <c r="D24">
-        <v>1.028254745477556</v>
+        <v>1.006814205290355</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.034362171687183</v>
+        <v>1.004134554861346</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029829849607499</v>
+        <v>1.041418250217845</v>
       </c>
       <c r="J24">
-        <v>1.024785872242631</v>
+        <v>1.009818370416781</v>
       </c>
       <c r="K24">
-        <v>1.031652059659294</v>
+        <v>1.020722703333361</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.03773795855635</v>
+        <v>1.018089450049953</v>
       </c>
       <c r="N24">
-        <v>1.012360423561039</v>
+        <v>1.007394179575805</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019889587257796</v>
+        <v>0.9888336557288985</v>
       </c>
       <c r="D25">
-        <v>1.029337711077012</v>
+        <v>1.012256616286765</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.035760325734746</v>
+        <v>1.010838993027528</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030053843442111</v>
+        <v>1.043395041755866</v>
       </c>
       <c r="J25">
-        <v>1.025579910291318</v>
+        <v>1.013742745435584</v>
       </c>
       <c r="K25">
-        <v>1.032410688961113</v>
+        <v>1.024667597608672</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.038812979708511</v>
+        <v>1.023271345889164</v>
       </c>
       <c r="N25">
-        <v>1.012621858305038</v>
+        <v>1.008686975508243</v>
       </c>
     </row>
   </sheetData>
